--- a/biology/Médecine/1804_en_santé_et_médecine/1804_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1804_en_santé_et_médecine/1804_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1804_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1804_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1804 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1804_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1804_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17 septembre : en France, circulaire du Ministre de l'intérieur sur la réclusion des insensés[1].
-13 octobre : Hanaoka Seishū pratique au Japon une mastectomie partielle pour cancer du sein chez une femme de soixante ans, sous anesthésie générale au tsusensan[2], opération considérée comme la première de cette sorte sérieusement documentée[3],[4],[5],[6].
-René Laennec est reçu docteur en médecine avec une thèse intitulée Propositions sur la doctrine d'Hippocrate, relativement à la médecine pratique[7].
-L'épidémie de fièvre jaune fait 20 000 morts à Carthagène et 2 000 malades et 700 décès à Livourne[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 septembre : en France, circulaire du Ministre de l'intérieur sur la réclusion des insensés.
+13 octobre : Hanaoka Seishū pratique au Japon une mastectomie partielle pour cancer du sein chez une femme de soixante ans, sous anesthésie générale au tsusensan, opération considérée comme la première de cette sorte sérieusement documentée.
+René Laennec est reçu docteur en médecine avec une thèse intitulée Propositions sur la doctrine d'Hippocrate, relativement à la médecine pratique.
+L'épidémie de fièvre jaune fait 20 000 morts à Carthagène et 2 000 malades et 700 décès à Livourne.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1804_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1804_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charles Bell, chirurgien, anatomiste et neurologue écossais, fait paraître le vol. 3, Nervous System, de son Anatomy of the Human Body[9].
-Antonio Scarpa, Riflessioni ed osservazione anatomico-chirugiche sull' aneurisma, texte classique sur les anévrismes[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles Bell, chirurgien, anatomiste et neurologue écossais, fait paraître le vol. 3, Nervous System, de son Anatomy of the Human Body.
+Antonio Scarpa, Riflessioni ed osservazione anatomico-chirugiche sull' aneurisma, texte classique sur les anévrismes.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1804_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1804_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>26 janvier : Eugène Sue (mort en 1857), écrivain et chirurgien auxiliaire de 3e classe de la Marine.
 19 février : Karel Rokitansky (mort en 1878), pathologiste, homme politique et philosophe autrichien d'origine tchèque.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1804_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1804_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2 février : Jacques Philippe Raymond Draparnaud (né en 1772), naturaliste, malacologiste et botaniste français, professeur de médecine en pathologie et nosologie à la Faculté de Médecine de Montpellier[11].
-25 décembre : Jean-Nicolas Laloy (né en 1745), médecin et homme politique français[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 février : Jacques Philippe Raymond Draparnaud (né en 1772), naturaliste, malacologiste et botaniste français, professeur de médecine en pathologie et nosologie à la Faculté de Médecine de Montpellier.
+25 décembre : Jean-Nicolas Laloy (né en 1745), médecin et homme politique français.</t>
         </is>
       </c>
     </row>
